--- a/line_doc.xlsx
+++ b/line_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nok\retailchat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79508255-8588-4CC2-8C23-E2FF70673AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA8E1EC-1E41-4514-BB2E-FF548FBE6F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15324" yWindow="432" windowWidth="12240" windowHeight="12360" activeTab="1" xr2:uid="{3E1136C7-609C-46A3-9F8E-5F44002A8190}"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="12240" windowHeight="12360" activeTab="1" xr2:uid="{3E1136C7-609C-46A3-9F8E-5F44002A8190}"/>
   </bookViews>
   <sheets>
     <sheet name="Line" sheetId="1" r:id="rId1"/>
@@ -268,18 +268,6 @@
     <t>URL Deploy</t>
   </si>
   <si>
-    <t>$cd myapp
-$git init
-Initialized empty Git repository in .git/
-$git add .
-$git commit -m "My first commit"
-Created initial commit 5df2d09: My first commit
- 44 files changed, 8393 insertions(+), 0 deletions(-)
- create mode 100644 README
- create mode 100644 Procfile
- create mode 100644 app/controllers/source_file</t>
-  </si>
-  <si>
     <r>
       <t>The following example demonstrates initializing a Git repository for an app that lives in the </t>
     </r>
@@ -363,6 +351,19 @@
     <t>git remote -v
 heroku  https://git.heroku.com/retailchat.git (fetch)
 heroku  https://git.heroku.com/retailchat.git (push)</t>
+  </si>
+  <si>
+    <t>$cd myapp
+$git init
+Initialized empty Git repository in .git/
+$git add .
+$git config --global user.email "warun.ser@gmail.com"
+$git commit -am "My first commit"
+Created initial commit 5df2d09: My first commit
+ 44 files changed, 8393 insertions(+), 0 deletions(-)
+ create mode 100644 README
+ create mode 100644 Procfile
+ create mode 100644 app/controllers/source_file</t>
   </si>
 </sst>
 </file>
@@ -833,7 +834,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>14145</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>403455</xdr:rowOff>
+      <xdr:rowOff>220575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1361,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6385DC40-FA8F-4951-9D1D-D3FC37C2C71A}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1461,15 +1462,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1477,10 +1478,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1488,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1499,10 +1500,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1510,10 +1511,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1521,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1532,10 +1533,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1543,11 +1544,14 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
